--- a/new_test_data/new_data.xlsx
+++ b/new_test_data/new_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ppp\mlops_churn_prediction\new_test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31B9CA6-5BBA-4AA4-8A7F-59E81E5A7B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A6427-C216-4977-B434-494B205F098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35DDD86D-9455-41ED-AA9A-23247E548272}"/>
   </bookViews>
@@ -559,15 +559,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990B83D0-42A7-4739-919F-2D7E26BE341F}">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="32" max="32" width="11.109375" customWidth="1"/>
+    <col min="33" max="33" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
@@ -768,6 +770,21 @@
       <c r="AD2">
         <v>65.2</v>
       </c>
+      <c r="AE2">
+        <v>2315.6999999999998</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>100</v>
+      </c>
+      <c r="AH2">
+        <v>406.3</v>
+      </c>
+      <c r="AI2">
+        <v>2722</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -861,19 +878,19 @@
         <v>102.3</v>
       </c>
       <c r="AE3">
-        <v>2315.6999999999998</v>
+        <v>784.2</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>406.3</v>
+        <v>318.8</v>
       </c>
       <c r="AI3">
-        <v>2722</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -968,19 +985,19 @@
         <v>54.1</v>
       </c>
       <c r="AE4">
-        <v>784.2</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AH4">
-        <v>318.8</v>
+        <v>29.3</v>
       </c>
       <c r="AI4">
-        <v>1103</v>
+        <v>191.6</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
@@ -1075,35 +1092,18 @@
         <v>110.9</v>
       </c>
       <c r="AE5">
-        <v>162.30000000000001</v>
+        <v>2450.5</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>29.3</v>
+        <v>596.20000000000005</v>
       </c>
       <c r="AI5">
-        <v>191.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="AE6">
-        <v>2450.5</v>
-      </c>
-      <c r="AF6">
-        <v>10</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>596.20000000000005</v>
-      </c>
-      <c r="AI6">
         <v>3056.7</v>
       </c>
     </row>

--- a/new_test_data/new_data.xlsx
+++ b/new_test_data/new_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ppp\mlops_churn_prediction\new_test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A6427-C216-4977-B434-494B205F098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34AE957-2407-4A1A-BAC3-D5715DD78619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35DDD86D-9455-41ED-AA9A-23247E548272}"/>
   </bookViews>
@@ -561,13 +561,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990B83D0-42A7-4739-919F-2D7E26BE341F}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="14" max="14" width="24.88671875" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" customWidth="1"/>
     <col min="32" max="32" width="11.109375" customWidth="1"/>
     <col min="33" max="33" width="21.5546875" customWidth="1"/>
   </cols>
@@ -884,13 +886,13 @@
         <v>120</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AH3">
         <v>318.8</v>
       </c>
       <c r="AI3">
-        <v>1103</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -985,19 +987,19 @@
         <v>54.1</v>
       </c>
       <c r="AE4">
-        <v>162.30000000000001</v>
+        <v>862.3</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="AH4">
         <v>29.3</v>
       </c>
       <c r="AI4">
-        <v>191.6</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">

--- a/new_test_data/new_data.xlsx
+++ b/new_test_data/new_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ppp\mlops_churn_prediction\new_test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34AE957-2407-4A1A-BAC3-D5715DD78619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D6416-C6C9-4E9D-A387-B636CA7F0979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35DDD86D-9455-41ED-AA9A-23247E548272}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
   <si>
     <t>Female</t>
   </si>
@@ -208,6 +208,45 @@
   </si>
   <si>
     <t>One Year</t>
+  </si>
+  <si>
+    <t>1006-ABCD</t>
+  </si>
+  <si>
+    <t>Riverside</t>
+  </si>
+  <si>
+    <t>Offer B</t>
+  </si>
+  <si>
+    <t>1007-UVWX</t>
+  </si>
+  <si>
+    <t>Bakersfield</t>
+  </si>
+  <si>
+    <t>1008-JKLM</t>
+  </si>
+  <si>
+    <t>Long Beach</t>
+  </si>
+  <si>
+    <t>1009-QWER</t>
+  </si>
+  <si>
+    <t>Anaheim</t>
+  </si>
+  <si>
+    <t>1010-ASDF</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t>Offer A</t>
+  </si>
+  <si>
+    <t>Dedibit Card</t>
   </si>
 </sst>
 </file>
@@ -559,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990B83D0-42A7-4739-919F-2D7E26BE341F}">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,6 +1148,541 @@
         <v>3056.7</v>
       </c>
     </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <v>92501</v>
+      </c>
+      <c r="H6">
+        <v>33.9816</v>
+      </c>
+      <c r="I6">
+        <v>-117.3755</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>22</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6">
+        <v>88.4</v>
+      </c>
+      <c r="AE6">
+        <v>612.70000000000005</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>120</v>
+      </c>
+      <c r="AH6">
+        <v>210.9</v>
+      </c>
+      <c r="AI6">
+        <v>943.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>93301</v>
+      </c>
+      <c r="H7">
+        <v>35.3733</v>
+      </c>
+      <c r="I7">
+        <v>-119.0187</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>26.2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AE7">
+        <v>1730.4</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>315.2</v>
+      </c>
+      <c r="AI7">
+        <v>2045.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8">
+        <v>90802</v>
+      </c>
+      <c r="H8">
+        <v>33.770099999999999</v>
+      </c>
+      <c r="I8">
+        <v>-118.19370000000001</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>7.9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8">
+        <v>49.3</v>
+      </c>
+      <c r="AE8">
+        <v>340.8</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>80</v>
+      </c>
+      <c r="AH8">
+        <v>55.7</v>
+      </c>
+      <c r="AI8">
+        <v>476.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9">
+        <v>92805</v>
+      </c>
+      <c r="H9">
+        <v>33.836599999999997</v>
+      </c>
+      <c r="I9">
+        <v>-117.9143</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>28</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9">
+        <v>105.7</v>
+      </c>
+      <c r="AE9">
+        <v>1983.6</v>
+      </c>
+      <c r="AF9">
+        <v>25</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>488.1</v>
+      </c>
+      <c r="AI9">
+        <v>2471.6999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>92614</v>
+      </c>
+      <c r="H10">
+        <v>33.675699999999999</v>
+      </c>
+      <c r="I10">
+        <v>-117.8259</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>21.5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10">
+        <v>18</v>
+      </c>
+      <c r="S10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD10">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="AE10">
+        <v>712.4</v>
+      </c>
+      <c r="AF10">
+        <v>40</v>
+      </c>
+      <c r="AG10">
+        <v>160</v>
+      </c>
+      <c r="AH10">
+        <v>260.3</v>
+      </c>
+      <c r="AI10">
+        <v>1112.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/new_test_data/new_data.xlsx
+++ b/new_test_data/new_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ppp\mlops_churn_prediction\new_test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D6416-C6C9-4E9D-A387-B636CA7F0979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6E8CA4-52F9-4D91-809D-AD4E279AB2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35DDD86D-9455-41ED-AA9A-23247E548272}"/>
   </bookViews>
